--- a/Mappe1farbe.xlsx
+++ b/Mappe1farbe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620"/>
+    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="14640"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -588,10 +588,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -605,15 +605,13 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-DE" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
+              <a:rPr lang="de-DE"/>
               <a:t>Lösungsinkrement entwickeln</a:t>
             </a:r>
-            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -651,6 +649,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="660066">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
@@ -876,6 +881,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -920,6 +926,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1158,6 +1165,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1202,6 +1210,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1398,6 +1407,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1442,6 +1452,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1701,6 +1712,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2580,10 +2592,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="126"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="26"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3233,10 +3245,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="122"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="22"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3256,6 +3268,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3293,6 +3306,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="660066">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -3452,6 +3472,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3496,6 +3517,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3719,6 +3741,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3763,6 +3786,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4001,6 +4025,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4045,6 +4070,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4268,6 +4294,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4312,6 +4339,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4580,6 +4608,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4624,6 +4653,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4907,6 +4937,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4951,6 +4982,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5189,6 +5221,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5233,6 +5266,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5471,6 +5505,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5549,16 +5584,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6289,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E334"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="D259" sqref="D259"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A333" sqref="A333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
